--- a/docs/Planning.xlsx
+++ b/docs/Planning.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12511E-E677-5B46-8CD9-8EC84232E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C60DEB-8994-6947-A776-B1F8F0637A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pilot_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Markerset" sheetId="2" r:id="rId2"/>
+    <sheet name="Athlete_0" sheetId="4" r:id="rId1"/>
+    <sheet name="Athlete_2" sheetId="3" r:id="rId2"/>
+    <sheet name="Pilot_1" sheetId="1" r:id="rId3"/>
+    <sheet name="Markerset" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="112">
   <si>
     <t>Markerlist</t>
   </si>
@@ -364,6 +366,15 @@
   </si>
   <si>
     <t>7. Muscle Analysis</t>
+  </si>
+  <si>
+    <t>Athlete_2</t>
+  </si>
+  <si>
+    <t>Labelling</t>
+  </si>
+  <si>
+    <t>Athlete_0</t>
   </si>
 </sst>
 </file>
@@ -481,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,6 +519,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,11 +542,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -868,11 +876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BC5316-D5E8-584C-B1B8-90306BBB571C}">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C58917-876B-9749-A7DD-54E93015FBD7}">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -890,26 +898,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -917,8 +923,8 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
@@ -929,8 +935,8 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -960,10 +966,10 @@
       <c r="I4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -993,35 +999,43 @@
       <c r="I5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1029,18 +1043,16 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1048,14 +1060,14 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>73</v>
@@ -1067,14 +1079,14 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>73</v>
@@ -1086,14 +1098,14 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>73</v>
@@ -1105,36 +1117,36 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1143,17 +1155,17 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>73</v>
+        <v>107</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1162,92 +1174,106 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1260,7 +1286,7 @@
     </row>
     <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1273,7 +1299,7 @@
     </row>
     <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1286,7 +1312,7 @@
     </row>
     <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1299,33 +1325,33 @@
     </row>
     <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1335,6 +1361,32 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1346,6 +1398,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5133B66-AA81-A54A-8537-83B40003C672}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="2" max="5" width="25.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BC5316-D5E8-584C-B1B8-90306BBB571C}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="2" max="5" width="25.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E0F6F8-DBD8-DD4B-811E-5529EC02CFEB}">
   <dimension ref="A1:T70"/>
   <sheetViews>
@@ -1390,14 +2448,14 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1414,22 +2472,22 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1447,18 +2505,18 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1473,18 +2531,18 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>

--- a/docs/Planning.xlsx
+++ b/docs/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C60DEB-8994-6947-A776-B1F8F0637A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6963A1C-8E74-2F43-8D11-166F39BB8A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>

--- a/docs/Planning.xlsx
+++ b/docs/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6963A1C-8E74-2F43-8D11-166F39BB8A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63B108-8105-8D4D-9A9F-92C58BF5124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Athlete_0" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="112">
   <si>
     <t>Markerlist</t>
   </si>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C58917-876B-9749-A7DD-54E93015FBD7}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -1267,9 +1267,15 @@
       <c r="F20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -1401,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5133B66-AA81-A54A-8537-83B40003C672}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
